--- a/biology/Botanique/Verbena/Verbena.xlsx
+++ b/biology/Botanique/Verbena/Verbena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbena est un genre de plantes dicotylédones, de la famille des Verbenaceae. Il regroupe des plantes souvent originaires d'Amérique. Ses espèces sont appelées couramment verveines dont la plus connue est Verbena officinalis, la verveine officinale, espèce cosmopolite à laquelle on attribuait dans l'Antiquité des vertus miraculeuses.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie du nom a été controversée. On admet généralement qu'il correspond au latin classique verbenae qui vient du latin uerbenæ désignant des « rameaux de laurier, d'olivier, de myrte » portés en couronne par les prêtres lors des sacrifices, ainsi que des touffes d'herbes sacrées utilisées par les fétiaux. Le mot semble à rattacher au verbe verbero (= frapper), mais on a aussi envisagé une forme herba Veneris (herbe de Vénus)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom a été controversée. On admet généralement qu'il correspond au latin classique verbenae qui vient du latin uerbenæ désignant des « rameaux de laurier, d'olivier, de myrte » portés en couronne par les prêtres lors des sacrifices, ainsi que des touffes d'herbes sacrées utilisées par les fétiaux. Le mot semble à rattacher au verbe verbero (= frapper), mais on a aussi envisagé une forme herba Veneris (herbe de Vénus).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes généralement herbacées à tige quadrangulaire, à rameaux et à feuilles le plus souvent opposés. Calice court en tube à quatre ou cinq dents, se fendant à la maturité selon les lignes de soudure des sépales. Corolle à long tube cylindrique à cinq lobes plus ou moins égaux. Quatre étamines insérées sur le tube de la corolle. Style légèrement bifide. Le fruit est une capsule à quatre loges monospermes se séparant à maturité.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À l'heure actuelle, on accepte environ 125 espèces dans ce genre : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'heure actuelle, on accepte environ 125 espèces dans ce genre : 
 Verbena alata Cham.
 Verbena andalgalensis Moldenke
 Verbena atacamensis Reiche
@@ -688,7 +706,7 @@
 Verbena stricta Vent. - Verveine veloutée
 Verbena strigosa Cham.
 Verbena subuligera Greene
-Verbena supina L. [2]
+Verbena supina L. 
 Verbena swiftiana Moldenke
 Verbena tecticaulis Tronc.
 Verbena tessmannii Moldenke
@@ -704,8 +722,43 @@
 Verbena villifolia Hayek
 Verbena weberbaueri Hayek
 Verbena xutha Lehm.
-Espèce retirée de ce genre
-Pour Verbena peruviana (L.) Druce, voir Glandularia peruviana (L.) Small</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verbena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verbena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce retirée de ce genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour Verbena peruviana (L.) Druce, voir Glandularia peruviana (L.) Small</t>
         </is>
       </c>
     </row>
